--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.742</v>
+        <v>-1.869</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.114</v>
+        <v>-0.642</v>
       </c>
       <c r="D4" t="n">
-        <v>78.76000000000001</v>
+        <v>-65.65000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.113</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>-638.1</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.725</v>
+        <v>7.676</v>
       </c>
       <c r="C6" t="n">
-        <v>13.09</v>
+        <v>4.394</v>
       </c>
       <c r="D6" t="n">
-        <v>50.03</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.571</v>
+        <v>0.531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.889</v>
+        <v>0.281</v>
       </c>
       <c r="D7" t="n">
-        <v>55.69</v>
+        <v>-47.08</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.001</v>
+        <v>18.901</v>
       </c>
       <c r="C8" t="n">
-        <v>23.655</v>
+        <v>15.025</v>
       </c>
       <c r="D8" t="n">
-        <v>31.41</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.266999999999999</v>
+        <v>7.384</v>
       </c>
       <c r="C9" t="n">
-        <v>11.488</v>
+        <v>3.857</v>
       </c>
       <c r="D9" t="n">
-        <v>38.96</v>
+        <v>-47.77</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.645</v>
+        <v>70.736</v>
       </c>
       <c r="C10" t="n">
-        <v>190.136</v>
+        <v>31.012</v>
       </c>
       <c r="D10" t="n">
-        <v>105.23</v>
+        <v>-56.16</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="C11" t="n">
-        <v>3.508</v>
+        <v>0.154</v>
       </c>
       <c r="D11" t="n">
-        <v>410.63</v>
+        <v>-71.79000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.49</v>
+        <v>-4.983</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.267</v>
+        <v>-1.623</v>
       </c>
       <c r="D12" t="n">
-        <v>128.66</v>
+        <v>-67.43000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.625</v>
+        <v>8.41</v>
       </c>
       <c r="C13" t="n">
-        <v>13.789</v>
+        <v>5.569</v>
       </c>
       <c r="D13" t="n">
-        <v>43.26</v>
+        <v>-33.78</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.827811986207962</v>
+        <v>4.84575236978985</v>
       </c>
       <c r="C4" t="n">
-        <v>5.352838054299355</v>
+        <v>5.878668966747465</v>
       </c>
       <c r="D4" t="n">
-        <v>39.84</v>
+        <v>21.32</v>
       </c>
       <c r="E4" t="n">
-        <v>1.227094741674595</v>
+        <v>1.818888229320525</v>
       </c>
       <c r="F4" t="n">
-        <v>1.836057304200947</v>
+        <v>2.054762202417461</v>
       </c>
       <c r="G4" t="n">
-        <v>49.63</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.737</v>
+        <v>0.745</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.51</v>
+        <v>-30.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.505778265490533</v>
+        <v>2.766621052384113</v>
       </c>
       <c r="C6" t="n">
-        <v>3.891638306158812</v>
+        <v>1.733179680558478</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.63</v>
+        <v>-37.35</v>
       </c>
       <c r="E6" t="n">
-        <v>1.033785316735804</v>
+        <v>0.9953362920650463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7181883476250989</v>
+        <v>0.4917746728622652</v>
       </c>
       <c r="G6" t="n">
-        <v>-30.53</v>
+        <v>-50.59</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.869</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.642</v>
+        <v>-0.06</v>
       </c>
       <c r="D4" t="n">
-        <v>-65.65000000000001</v>
+        <v>-93.63</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001</v>
+        <v>-0.034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="D5" t="n">
-        <v>800</v>
+        <v>-132.35</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.676</v>
+        <v>5.197</v>
       </c>
       <c r="C6" t="n">
-        <v>4.394</v>
+        <v>2.836</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.76</v>
+        <v>-45.43</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.531</v>
+        <v>0.341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.281</v>
+        <v>0.184</v>
       </c>
       <c r="D7" t="n">
-        <v>-47.08</v>
+        <v>-46.04</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.901</v>
+        <v>16.072</v>
       </c>
       <c r="C8" t="n">
-        <v>15.025</v>
+        <v>11.935</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.51</v>
+        <v>-25.74</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.384</v>
+        <v>4.802</v>
       </c>
       <c r="C9" t="n">
-        <v>3.857</v>
+        <v>2.044</v>
       </c>
       <c r="D9" t="n">
-        <v>-47.77</v>
+        <v>-57.43</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.736</v>
+        <v>39.229</v>
       </c>
       <c r="C10" t="n">
-        <v>31.012</v>
+        <v>14.566</v>
       </c>
       <c r="D10" t="n">
-        <v>-56.16</v>
+        <v>-62.87</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.546</v>
+        <v>0.218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.154</v>
+        <v>0.056</v>
       </c>
       <c r="D11" t="n">
-        <v>-71.79000000000001</v>
+        <v>-74.31</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.983</v>
+        <v>-2.318</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.623</v>
+        <v>-0.232</v>
       </c>
       <c r="D12" t="n">
-        <v>-67.43000000000001</v>
+        <v>-89.98999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.41</v>
+        <v>6.263</v>
       </c>
       <c r="C13" t="n">
-        <v>5.569</v>
+        <v>3.817</v>
       </c>
       <c r="D13" t="n">
-        <v>-33.78</v>
+        <v>-39.05</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.84575236978985</v>
+        <v>2.828422110705149</v>
       </c>
       <c r="C4" t="n">
-        <v>5.878668966747465</v>
+        <v>3.538315432412284</v>
       </c>
       <c r="D4" t="n">
-        <v>21.32</v>
+        <v>25.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.818888229320525</v>
+        <v>0.8460984918753635</v>
       </c>
       <c r="F4" t="n">
-        <v>2.054762202417461</v>
+        <v>0.4657302082141109</v>
       </c>
       <c r="G4" t="n">
-        <v>12.97</v>
+        <v>-44.96</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>1.076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.745</v>
+        <v>0.923</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.76</v>
+        <v>-14.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.766621052384113</v>
+        <v>3.894698519431459</v>
       </c>
       <c r="C6" t="n">
-        <v>1.733179680558478</v>
+        <v>2.881123157066626</v>
       </c>
       <c r="D6" t="n">
-        <v>-37.35</v>
+        <v>-26.02</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9953362920650463</v>
+        <v>1.345095735347318</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4917746728622652</v>
+        <v>0.2652016984082884</v>
       </c>
       <c r="G6" t="n">
-        <v>-50.59</v>
+        <v>-80.28</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-qat/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
